--- a/data/emdat/emdat_drought_events_updated.xlsx
+++ b/data/emdat/emdat_drought_events_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/drought-child-marriage/data/emdat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B90BD25-E62E-4547-90B1-5270E3864375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F01466-1B6E-1244-99B6-3B0EB8A29BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="580" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="1313">
   <si>
     <t>Dis No</t>
   </si>
@@ -3956,6 +3956,9 @@
   </si>
   <si>
     <t>Nampula (North province), Cabo Delgado, Nampula, Tete, Manica provinces</t>
+  </si>
+  <si>
+    <t>Not enough pre and post periods</t>
   </si>
 </sst>
 </file>
@@ -4014,14 +4017,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4339,8 +4340,8 @@
   <dimension ref="A1:BG316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG310" sqref="BG310:BG316"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD218" sqref="BD218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4922,92 +4923,92 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC6" s="4">
+      <c r="U6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="3">
         <v>2018</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="3">
         <v>4</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="3">
         <v>2019</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="3">
         <v>7</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="3">
         <v>13500000</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="3">
         <v>13500000</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="3">
         <v>85.803026057265399</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AU6" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AX6" s="4" t="s">
+      <c r="AX6" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AY6" s="3">
         <v>1977</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="AZ6" s="3">
         <v>2019</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BA6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BB6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BB6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="BF6">
@@ -8554,80 +8555,80 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="49" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="E49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="O49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="Q49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC49" s="5">
+      <c r="X49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC49" s="3">
         <v>1983</v>
       </c>
-      <c r="AD49" s="5">
+      <c r="AD49" s="3">
         <v>2</v>
       </c>
-      <c r="AF49" s="5">
+      <c r="AF49" s="3">
         <v>1983</v>
       </c>
-      <c r="AT49" s="5">
+      <c r="AT49" s="3">
         <v>34.033263629163002</v>
       </c>
-      <c r="AY49" s="5">
+      <c r="AY49" s="3">
         <v>1977</v>
       </c>
-      <c r="AZ49" s="5">
+      <c r="AZ49" s="3">
         <v>2011</v>
       </c>
-      <c r="BA49" s="5" t="s">
+      <c r="BA49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BB49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF49" s="5">
+      <c r="BB49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF49" s="3">
         <v>1978</v>
       </c>
-      <c r="BG49" s="5">
+      <c r="BG49" s="3">
         <v>1988</v>
       </c>
     </row>
@@ -11367,13 +11368,10 @@
         <v>71</v>
       </c>
       <c r="BD82" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF82">
-        <v>1997</v>
-      </c>
-      <c r="BG82">
-        <v>2011</v>
+        <v>76</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.2">
@@ -11459,7 +11457,7 @@
         <v>71</v>
       </c>
       <c r="BF83">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="BG83">
         <v>2011</v>
@@ -22917,13 +22915,10 @@
         <v>71</v>
       </c>
       <c r="BD217" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF217">
-        <v>1997</v>
-      </c>
-      <c r="BG217">
-        <v>2005</v>
+        <v>76</v>
+      </c>
+      <c r="BE217" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="218" spans="1:59" x14ac:dyDescent="0.2">
@@ -23000,13 +22995,10 @@
         <v>71</v>
       </c>
       <c r="BD218" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF218">
-        <v>1997</v>
-      </c>
-      <c r="BG218">
-        <v>2005</v>
+        <v>76</v>
+      </c>
+      <c r="BE218" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="219" spans="1:59" x14ac:dyDescent="0.2">
@@ -25545,7 +25537,7 @@
       <c r="BC249" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="BD249" s="3" t="s">
+      <c r="BD249" t="s">
         <v>71</v>
       </c>
       <c r="BF249">

--- a/data/emdat/emdat_drought_events_updated.xlsx
+++ b/data/emdat/emdat_drought_events_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/drought-child-marriage/data/emdat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F01466-1B6E-1244-99B6-3B0EB8A29BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E1E73-087B-BB42-BAE0-ADCE03B914F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="33260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5717" uniqueCount="1316">
   <si>
     <t>Dis No</t>
   </si>
@@ -3959,6 +3959,15 @@
   </si>
   <si>
     <t>Not enough pre and post periods</t>
+  </si>
+  <si>
+    <t>Adm2 Analysis</t>
+  </si>
+  <si>
+    <t>Adm2 Panel Start</t>
+  </si>
+  <si>
+    <t>Adm2 Panel End</t>
   </si>
 </sst>
 </file>
@@ -4337,11 +4346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG316"/>
+  <dimension ref="A1:BJ316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD218" sqref="BD218"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4365,9 +4374,12 @@
     <col min="38" max="52" width="0" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="7.5" customWidth="1"/>
     <col min="55" max="55" width="11" customWidth="1"/>
+    <col min="60" max="60" width="5.6640625" customWidth="1"/>
+    <col min="61" max="61" width="6.83203125" customWidth="1"/>
+    <col min="62" max="62" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,8 +4557,17 @@
       <c r="BG1" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH1" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>549</v>
       </c>
@@ -4650,7 +4671,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>907</v>
       </c>
@@ -4736,7 +4757,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>977</v>
       </c>
@@ -4825,7 +4846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1113</v>
       </c>
@@ -4923,7 +4944,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1269</v>
       </c>
@@ -5018,7 +5039,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -5101,7 +5122,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -5175,7 +5196,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -5252,7 +5273,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>468</v>
       </c>
@@ -5338,7 +5359,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -5421,7 +5442,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>822</v>
       </c>
@@ -5507,7 +5528,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1133</v>
       </c>
@@ -5602,7 +5623,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>365</v>
       </c>
@@ -5673,7 +5694,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>556</v>
       </c>
@@ -5774,7 +5795,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>564</v>
       </c>
@@ -16694,7 +16715,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>231</v>
       </c>
@@ -16768,7 +16789,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>401</v>
       </c>
@@ -16839,7 +16860,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>734</v>
       </c>
@@ -16928,7 +16949,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>985</v>
       </c>
@@ -17020,7 +17041,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1149</v>
       </c>
@@ -17112,7 +17133,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>235</v>
       </c>
@@ -17177,7 +17198,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>255</v>
       </c>
@@ -17245,7 +17266,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>606</v>
       </c>
@@ -17337,7 +17358,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>638</v>
       </c>
@@ -17420,7 +17441,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>200</v>
       </c>
@@ -17497,7 +17518,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>287</v>
       </c>
@@ -17592,7 +17613,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>645</v>
       </c>
@@ -17680,8 +17701,17 @@
       <c r="BG156">
         <v>2017</v>
       </c>
-    </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH156" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI156">
+        <v>1995</v>
+      </c>
+      <c r="BJ156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>743</v>
       </c>
@@ -17766,8 +17796,17 @@
       <c r="BG157">
         <v>2017</v>
       </c>
-    </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH157" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI157">
+        <v>1995</v>
+      </c>
+      <c r="BJ157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>915</v>
       </c>
@@ -17864,8 +17903,17 @@
       <c r="BG158">
         <v>2017</v>
       </c>
-    </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH158" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI158">
+        <v>1995</v>
+      </c>
+      <c r="BJ158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1007</v>
       </c>
@@ -17947,8 +17995,17 @@
       <c r="BG159">
         <v>2017</v>
       </c>
-    </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH159" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI159">
+        <v>1995</v>
+      </c>
+      <c r="BJ159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1217</v>
       </c>
@@ -18036,8 +18093,17 @@
       <c r="BG160">
         <v>2017</v>
       </c>
-    </row>
-    <row r="161" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH160" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI160">
+        <v>1995</v>
+      </c>
+      <c r="BJ160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1252</v>
       </c>
@@ -18137,8 +18203,17 @@
       <c r="BG161">
         <v>2017</v>
       </c>
-    </row>
-    <row r="162" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH161" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI161">
+        <v>1995</v>
+      </c>
+      <c r="BJ161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1280</v>
       </c>
@@ -18230,7 +18305,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -18307,7 +18382,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="164" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>414</v>
       </c>
@@ -18378,7 +18453,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="165" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>716</v>
       </c>
@@ -18461,7 +18536,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="166" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>935</v>
       </c>
@@ -18544,7 +18619,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="167" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>957</v>
       </c>
@@ -18639,7 +18714,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="168" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1104</v>
       </c>
@@ -18722,7 +18797,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="169" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1154</v>
       </c>
@@ -18811,7 +18886,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="170" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>613</v>
       </c>
@@ -18900,7 +18975,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="171" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1308</v>
       </c>
@@ -18971,7 +19046,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="172" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -19051,7 +19126,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="173" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>279</v>
       </c>
@@ -19131,7 +19206,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="174" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>399</v>
       </c>
@@ -19232,7 +19307,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="175" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>593</v>
       </c>
@@ -19309,7 +19384,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="176" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>728</v>
       </c>
@@ -20795,7 +20870,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="193" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>997</v>
       </c>
@@ -20881,7 +20956,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="194" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1184</v>
       </c>
@@ -20976,7 +21051,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="195" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1229</v>
       </c>
@@ -21071,7 +21146,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="196" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -21136,7 +21211,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="197" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -21228,7 +21303,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="198" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>490</v>
       </c>
@@ -21296,7 +21371,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="199" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>595</v>
       </c>
@@ -21379,7 +21454,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="200" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>775</v>
       </c>
@@ -21459,7 +21534,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="201" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>796</v>
       </c>
@@ -21542,7 +21617,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="202" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -21613,7 +21688,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="203" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>292</v>
       </c>
@@ -21687,7 +21762,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="204" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>397</v>
       </c>
@@ -21770,7 +21845,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="205" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>502</v>
       </c>
@@ -21853,7 +21928,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="206" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>772</v>
       </c>
@@ -21941,8 +22016,17 @@
       <c r="BG206">
         <v>2008</v>
       </c>
-    </row>
-    <row r="207" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH206" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI206">
+        <v>1999</v>
+      </c>
+      <c r="BJ206">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>925</v>
       </c>
@@ -22043,7 +22127,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="208" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -22129,7 +22213,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="209" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>486</v>
       </c>
@@ -22224,7 +22308,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="210" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>516</v>
       </c>
@@ -22322,7 +22406,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="211" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>962</v>
       </c>
@@ -22408,7 +22492,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="212" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1083</v>
       </c>
@@ -22494,7 +22578,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="213" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>661</v>
       </c>
@@ -22594,8 +22678,17 @@
       <c r="BG213">
         <v>2008</v>
       </c>
-    </row>
-    <row r="214" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH213" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI213">
+        <v>1994</v>
+      </c>
+      <c r="BJ213">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>239</v>
       </c>
@@ -22672,7 +22765,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="215" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>395</v>
       </c>
@@ -22761,7 +22854,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="216" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>422</v>
       </c>
@@ -22841,7 +22934,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="217" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>800</v>
       </c>
@@ -22921,7 +23014,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="218" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>872</v>
       </c>
@@ -23001,7 +23094,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="219" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>190</v>
       </c>
@@ -23084,7 +23177,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="220" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -23155,7 +23248,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="221" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -23223,7 +23316,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="222" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>403</v>
       </c>
@@ -23312,7 +23405,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="223" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>649</v>
       </c>
@@ -23398,7 +23491,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="224" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>804</v>
       </c>
@@ -23490,7 +23583,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="225" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1002</v>
       </c>
@@ -23573,7 +23666,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="226" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1239</v>
       </c>
@@ -23674,7 +23767,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="227" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>247</v>
       </c>
@@ -23748,7 +23841,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="228" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>433</v>
       </c>
@@ -23837,7 +23930,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="229" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>528</v>
       </c>
@@ -23925,8 +24018,17 @@
       <c r="BG229">
         <v>2012</v>
       </c>
-    </row>
-    <row r="230" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH229" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI229">
+        <v>1991</v>
+      </c>
+      <c r="BJ229">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="230" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>667</v>
       </c>
@@ -24014,8 +24116,17 @@
       <c r="BG230">
         <v>2012</v>
       </c>
-    </row>
-    <row r="231" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH230" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI230">
+        <v>1991</v>
+      </c>
+      <c r="BJ230">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="231" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>865</v>
       </c>
@@ -24100,8 +24211,17 @@
       <c r="BG231">
         <v>2012</v>
       </c>
-    </row>
-    <row r="232" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH231" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI231">
+        <v>1991</v>
+      </c>
+      <c r="BJ231">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="232" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>166</v>
       </c>
@@ -24172,7 +24292,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="233" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -24252,7 +24372,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="234" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>284</v>
       </c>
@@ -24326,7 +24446,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="235" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>440</v>
       </c>
@@ -24403,7 +24523,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="236" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>450</v>
       </c>
@@ -24486,7 +24606,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="237" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>531</v>
       </c>
@@ -24569,7 +24689,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="238" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>658</v>
       </c>
@@ -24658,7 +24778,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="239" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>301</v>
       </c>
@@ -24729,7 +24849,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="240" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>809</v>
       </c>
@@ -26104,7 +26224,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="257" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>994</v>
       </c>
@@ -26193,7 +26313,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="258" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>678</v>
       </c>
@@ -26264,7 +26384,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="259" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>298</v>
       </c>
@@ -26344,7 +26464,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="260" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>457</v>
       </c>
@@ -26424,7 +26544,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="261" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>534</v>
       </c>
@@ -26504,7 +26624,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="262" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>769</v>
       </c>
@@ -26593,7 +26713,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="263" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1086</v>
       </c>
@@ -26688,7 +26808,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="264" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>295</v>
       </c>
@@ -26759,7 +26879,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="265" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>436</v>
       </c>
@@ -26841,8 +26961,17 @@
       <c r="BG265">
         <v>1994</v>
       </c>
-    </row>
-    <row r="266" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH265" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI265">
+        <v>1984</v>
+      </c>
+      <c r="BJ265">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="266" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>453</v>
       </c>
@@ -26913,7 +27042,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="267" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>459</v>
       </c>
@@ -26993,7 +27122,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="268" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>681</v>
       </c>
@@ -27067,7 +27196,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="269" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>813</v>
       </c>
@@ -27162,7 +27291,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="270" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>945</v>
       </c>
@@ -27251,7 +27380,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="271" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1025</v>
       </c>
@@ -27334,7 +27463,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="272" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1108</v>
       </c>

--- a/data/emdat/emdat_drought_events_updated.xlsx
+++ b/data/emdat/emdat_drought_events_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/drought-child-marriage/data/emdat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E1E73-087B-BB42-BAE0-ADCE03B914F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CAB97-C1D0-EE4B-BC62-A951296D7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="33260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5717" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5719" uniqueCount="1314">
   <si>
     <t>Dis No</t>
   </si>
@@ -3962,12 +3962,6 @@
   </si>
   <si>
     <t>Adm2 Analysis</t>
-  </si>
-  <si>
-    <t>Adm2 Panel Start</t>
-  </si>
-  <si>
-    <t>Adm2 Panel End</t>
   </si>
 </sst>
 </file>
@@ -4346,11 +4340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ316"/>
+  <dimension ref="A1:BH316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH1" sqref="BH1"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O268" sqref="O268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4375,11 +4369,9 @@
     <col min="54" max="54" width="7.5" customWidth="1"/>
     <col min="55" max="55" width="11" customWidth="1"/>
     <col min="60" max="60" width="5.6640625" customWidth="1"/>
-    <col min="61" max="61" width="6.83203125" customWidth="1"/>
-    <col min="62" max="62" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4560,14 +4552,8 @@
       <c r="BH1" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>549</v>
       </c>
@@ -4671,7 +4657,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>907</v>
       </c>
@@ -4757,7 +4743,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>977</v>
       </c>
@@ -4846,7 +4832,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1113</v>
       </c>
@@ -4944,7 +4930,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1269</v>
       </c>
@@ -5039,7 +5025,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -5122,7 +5108,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -5196,7 +5182,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -5273,7 +5259,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>468</v>
       </c>
@@ -5359,7 +5345,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -5442,7 +5428,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>822</v>
       </c>
@@ -5528,7 +5514,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1133</v>
       </c>
@@ -5623,7 +5609,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>365</v>
       </c>
@@ -5694,7 +5680,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>556</v>
       </c>
@@ -5795,7 +5781,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>564</v>
       </c>
@@ -16715,7 +16701,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>231</v>
       </c>
@@ -16789,7 +16775,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>401</v>
       </c>
@@ -16860,7 +16846,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>734</v>
       </c>
@@ -16949,7 +16935,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>985</v>
       </c>
@@ -17041,7 +17027,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1149</v>
       </c>
@@ -17133,7 +17119,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>235</v>
       </c>
@@ -17198,7 +17184,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>255</v>
       </c>
@@ -17266,7 +17252,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>606</v>
       </c>
@@ -17358,7 +17344,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>638</v>
       </c>
@@ -17441,7 +17427,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>200</v>
       </c>
@@ -17517,8 +17503,11 @@
       <c r="BG154">
         <v>2017</v>
       </c>
-    </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BH154" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>287</v>
       </c>
@@ -17612,8 +17601,11 @@
       <c r="BG155">
         <v>2017</v>
       </c>
-    </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BH155" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>645</v>
       </c>
@@ -17704,14 +17696,8 @@
       <c r="BH156" t="s">
         <v>71</v>
       </c>
-      <c r="BI156">
-        <v>1995</v>
-      </c>
-      <c r="BJ156">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>743</v>
       </c>
@@ -17799,14 +17785,8 @@
       <c r="BH157" t="s">
         <v>71</v>
       </c>
-      <c r="BI157">
-        <v>1995</v>
-      </c>
-      <c r="BJ157">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>915</v>
       </c>
@@ -17906,14 +17886,8 @@
       <c r="BH158" t="s">
         <v>71</v>
       </c>
-      <c r="BI158">
-        <v>1995</v>
-      </c>
-      <c r="BJ158">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1007</v>
       </c>
@@ -17998,14 +17972,8 @@
       <c r="BH159" t="s">
         <v>71</v>
       </c>
-      <c r="BI159">
-        <v>1995</v>
-      </c>
-      <c r="BJ159">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1217</v>
       </c>
@@ -18096,14 +18064,8 @@
       <c r="BH160" t="s">
         <v>71</v>
       </c>
-      <c r="BI160">
-        <v>1995</v>
-      </c>
-      <c r="BJ160">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1252</v>
       </c>
@@ -18206,14 +18168,8 @@
       <c r="BH161" t="s">
         <v>71</v>
       </c>
-      <c r="BI161">
-        <v>1995</v>
-      </c>
-      <c r="BJ161">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1280</v>
       </c>
@@ -18304,8 +18260,11 @@
       <c r="BG162">
         <v>2017</v>
       </c>
-    </row>
-    <row r="163" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BH162" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -18382,7 +18341,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="164" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>414</v>
       </c>
@@ -18453,7 +18412,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="165" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>716</v>
       </c>
@@ -18536,7 +18495,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="166" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>935</v>
       </c>
@@ -18619,7 +18578,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="167" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>957</v>
       </c>
@@ -18714,7 +18673,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="168" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1104</v>
       </c>
@@ -18797,7 +18756,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="169" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1154</v>
       </c>
@@ -18886,7 +18845,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="170" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>613</v>
       </c>
@@ -18975,7 +18934,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="171" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1308</v>
       </c>
@@ -19046,7 +19005,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="172" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -19126,7 +19085,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="173" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>279</v>
       </c>
@@ -19206,7 +19165,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="174" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>399</v>
       </c>
@@ -19307,7 +19266,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="175" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>593</v>
       </c>
@@ -19384,7 +19343,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="176" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>728</v>
       </c>
@@ -20870,7 +20829,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="193" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>997</v>
       </c>
@@ -20956,7 +20915,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="194" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1184</v>
       </c>
@@ -21051,7 +21010,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="195" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1229</v>
       </c>
@@ -21146,7 +21105,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="196" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -21211,7 +21170,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="197" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -21303,7 +21262,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="198" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>490</v>
       </c>
@@ -21371,7 +21330,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="199" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>595</v>
       </c>
@@ -21454,7 +21413,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="200" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>775</v>
       </c>
@@ -21534,7 +21493,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="201" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>796</v>
       </c>
@@ -21617,7 +21576,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="202" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -21688,7 +21647,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="203" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>292</v>
       </c>
@@ -21762,7 +21721,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="204" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>397</v>
       </c>
@@ -21845,7 +21804,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="205" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>502</v>
       </c>
@@ -21928,7 +21887,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="206" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>772</v>
       </c>
@@ -22019,14 +21978,8 @@
       <c r="BH206" t="s">
         <v>71</v>
       </c>
-      <c r="BI206">
-        <v>1999</v>
-      </c>
-      <c r="BJ206">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="207" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>925</v>
       </c>
@@ -22126,8 +22079,11 @@
       <c r="BG207">
         <v>2008</v>
       </c>
-    </row>
-    <row r="208" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BH207" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -22213,7 +22169,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="209" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>486</v>
       </c>
@@ -22308,7 +22264,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="210" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>516</v>
       </c>
@@ -22406,7 +22362,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="211" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>962</v>
       </c>
@@ -22492,7 +22448,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="212" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1083</v>
       </c>
@@ -22578,7 +22534,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="213" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>661</v>
       </c>
@@ -22681,14 +22637,8 @@
       <c r="BH213" t="s">
         <v>71</v>
       </c>
-      <c r="BI213">
-        <v>1994</v>
-      </c>
-      <c r="BJ213">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="214" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>239</v>
       </c>
@@ -22765,7 +22715,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="215" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>395</v>
       </c>
@@ -22854,7 +22804,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="216" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>422</v>
       </c>
@@ -22934,7 +22884,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="217" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>800</v>
       </c>
@@ -23014,7 +22964,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="218" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>872</v>
       </c>
@@ -23094,7 +23044,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="219" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>190</v>
       </c>
@@ -23177,7 +23127,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="220" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -23248,7 +23198,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="221" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -23316,7 +23266,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="222" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>403</v>
       </c>
@@ -23405,7 +23355,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="223" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>649</v>
       </c>
@@ -23491,7 +23441,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="224" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>804</v>
       </c>
@@ -23583,7 +23533,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="225" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1002</v>
       </c>
@@ -23666,7 +23616,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="226" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1239</v>
       </c>
@@ -23767,7 +23717,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="227" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>247</v>
       </c>
@@ -23841,7 +23791,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="228" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>433</v>
       </c>
@@ -23930,7 +23880,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="229" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>528</v>
       </c>
@@ -24021,14 +23971,8 @@
       <c r="BH229" t="s">
         <v>71</v>
       </c>
-      <c r="BI229">
-        <v>1991</v>
-      </c>
-      <c r="BJ229">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="230" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>667</v>
       </c>
@@ -24119,14 +24063,8 @@
       <c r="BH230" t="s">
         <v>71</v>
       </c>
-      <c r="BI230">
-        <v>1991</v>
-      </c>
-      <c r="BJ230">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="231" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>865</v>
       </c>
@@ -24214,14 +24152,8 @@
       <c r="BH231" t="s">
         <v>71</v>
       </c>
-      <c r="BI231">
-        <v>1991</v>
-      </c>
-      <c r="BJ231">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="232" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>166</v>
       </c>
@@ -24292,7 +24224,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="233" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -24372,7 +24304,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="234" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>284</v>
       </c>
@@ -24446,7 +24378,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="235" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>440</v>
       </c>
@@ -24523,7 +24455,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="236" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>450</v>
       </c>
@@ -24606,7 +24538,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="237" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>531</v>
       </c>
@@ -24689,7 +24621,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="238" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>658</v>
       </c>
@@ -24778,7 +24710,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="239" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>301</v>
       </c>
@@ -24849,7 +24781,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="240" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>809</v>
       </c>
@@ -26224,7 +26156,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="257" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>994</v>
       </c>
@@ -26313,7 +26245,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="258" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>678</v>
       </c>
@@ -26384,7 +26316,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="259" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>298</v>
       </c>
@@ -26464,7 +26396,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="260" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>457</v>
       </c>
@@ -26544,7 +26476,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="261" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>534</v>
       </c>
@@ -26624,7 +26556,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="262" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>769</v>
       </c>
@@ -26713,7 +26645,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="263" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1086</v>
       </c>
@@ -26808,7 +26740,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="264" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>295</v>
       </c>
@@ -26879,7 +26811,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="265" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>436</v>
       </c>
@@ -26964,14 +26896,8 @@
       <c r="BH265" t="s">
         <v>71</v>
       </c>
-      <c r="BI265">
-        <v>1984</v>
-      </c>
-      <c r="BJ265">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="266" spans="1:62" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>453</v>
       </c>
@@ -27042,7 +26968,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="267" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>459</v>
       </c>
@@ -27122,7 +27048,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="268" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>681</v>
       </c>
@@ -27196,7 +27122,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="269" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>813</v>
       </c>
@@ -27291,7 +27217,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="270" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>945</v>
       </c>
@@ -27380,7 +27306,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="271" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1025</v>
       </c>
@@ -27463,7 +27389,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="272" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1108</v>
       </c>

--- a/data/emdat/emdat_drought_events_updated.xlsx
+++ b/data/emdat/emdat_drought_events_updated.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/drought-child-marriage/data/emdat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CAB97-C1D0-EE4B-BC62-A951296D7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C7405-D6BD-7C4A-A694-4AF270B952BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="33260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5719" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="1314">
   <si>
     <t>Dis No</t>
   </si>
@@ -4343,29 +4356,28 @@
   <dimension ref="A1:BH316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O268" sqref="O268"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O318" sqref="O318:O321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="27.6640625" customWidth="1"/>
-    <col min="16" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="10.5" hidden="1" customWidth="1"/>
-    <col min="38" max="52" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="28" width="8.83203125" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="34" max="34" width="8.83203125" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" customWidth="1"/>
+    <col min="37" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="52" width="8.83203125" customWidth="1"/>
     <col min="54" max="54" width="7.5" customWidth="1"/>
     <col min="55" max="55" width="11" customWidth="1"/>
     <col min="60" max="60" width="5.6640625" customWidth="1"/>
@@ -28327,6 +28339,9 @@
       </c>
       <c r="BD282" t="s">
         <v>76</v>
+      </c>
+      <c r="BE282" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="283" spans="1:59" x14ac:dyDescent="0.2">
